--- a/output/aggregate_tables/status_by_landings_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_area.xlsx
@@ -1168,13 +1168,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1213498</v>
+        <v>0.11214782</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0.26934514</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1213498</v>
+        <v>0.11214782</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0.26934514</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.05998762103241</v>
+        <v>29.39708769461958</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>68.94001237896759</v>
+        <v>70.60291230538041</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>31.05998762103241</v>
+        <v>29.39708769461958</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>68.94001237896759</v>
+        <v>70.60291230538041</v>
       </c>
     </row>
     <row r="21">
@@ -1239,34 +1239,34 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.04815183999999999</v>
+        <v>0.02746989</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>0.02270955</v>
+        <v>0.02122207</v>
       </c>
       <c r="D22" s="8" t="n">
         <v>0.008423449999999999</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>0.07086139</v>
+        <v>0.04869196</v>
       </c>
       <c r="F22" s="8" t="n">
         <v>0.008423449999999999</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>60.73272015179699</v>
+        <v>48.09540892729301</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>28.64299152271734</v>
+        <v>37.15646968129967</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>89.37571167451432</v>
+        <v>85.25187860859268</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
     </row>
     <row r="23">
@@ -1313,34 +1313,34 @@
         </is>
       </c>
       <c r="B24" s="5" t="n">
-        <v>18.53246260204852</v>
+        <v>18.51178065204852</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>33.70221339721761</v>
+        <v>33.6915239372176</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>17.59242457018554</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>52.23467599926612</v>
+        <v>52.20330458926612</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>17.59242457018554</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>26.54050139689776</v>
+        <v>26.5227985651636</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>48.26523387391203</v>
+        <v>48.27161252266269</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>25.19426472919021</v>
+        <v>25.2055889121737</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>74.80573527080979</v>
+        <v>74.79441108782629</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>25.19426472919021</v>
+        <v>25.2055889121737</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_area.xlsx
@@ -814,31 +814,31 @@
         <v>0.08575953985074626</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.5350936836970592</v>
+        <v>0.5344385436970592</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.7321769764521945</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6208532235478056</v>
+        <v>0.6201980835478056</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.7321769764521945</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>6.338331535448821</v>
+        <v>6.341402055340052</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>39.54780046277306</v>
+        <v>39.51851520369351</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>54.11386800177811</v>
+        <v>54.14008274096643</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>45.88613199822188</v>
+        <v>45.85991725903357</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>54.11386800177811</v>
+        <v>54.14008274096643</v>
       </c>
     </row>
     <row r="11">
@@ -846,7 +846,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1.124511467475507</v>
+        <v>1.124014212475507</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>1.904859311285578</v>
@@ -855,25 +855,25 @@
         <v>1.295687850238915</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.029370778761085</v>
+        <v>3.028873523761085</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>1.295687850238915</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>25.99991269333398</v>
+        <v>25.99140387354132</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>44.04239282476506</v>
+        <v>44.04745699154409</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>29.95769448190097</v>
+        <v>29.9611391349146</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>70.04230551809903</v>
+        <v>70.03886086508541</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>29.95769448190097</v>
+        <v>29.9611391349146</v>
       </c>
     </row>
     <row r="12">
@@ -884,31 +884,31 @@
         <v>0.8186223418063776</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.69925807403579</v>
+        <v>3.699075689035789</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0.9620605899324924</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.517880415842167</v>
+        <v>4.517698030842167</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0.9620605899324924</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.93852472031594</v>
+        <v>14.93902192521486</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>67.50543610118396</v>
+        <v>67.50435457160448</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.55603917850011</v>
+        <v>17.55662350318067</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>82.4439608214999</v>
+        <v>82.44337649681934</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.55603917850011</v>
+        <v>17.55662350318067</v>
       </c>
     </row>
     <row r="13">
@@ -992,28 +992,28 @@
         <v>2.415107188610831</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.589177635161871</v>
+        <v>4.588987080161871</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>4.499044594838128</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.589177635161871</v>
+        <v>4.588987080161871</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>22.93008856394676</v>
+        <v>22.93056935485755</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>26.5740331551161</v>
+        <v>26.57459035111507</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>50.49587828093715</v>
+        <v>50.49484029402739</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>49.50412171906286</v>
+        <v>49.50515970597262</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>50.49587828093715</v>
+        <v>50.49484029402739</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.5751353900638293</v>
+        <v>0.5731952950638293</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>0.5072399910954071</v>
@@ -1030,25 +1030,25 @@
         <v>0.2442260147028325</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.082375381159236</v>
+        <v>1.080435286159236</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.2442260147028325</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>43.35404680394501</v>
+        <v>43.27108330943184</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>38.23605136234505</v>
+        <v>38.29205176940727</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>18.40990183370993</v>
+        <v>18.43686492116091</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>81.59009816629006</v>
+        <v>81.56313507883911</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>18.40990183370993</v>
+        <v>18.43686492116091</v>
       </c>
     </row>
     <row r="17">
@@ -1242,31 +1242,31 @@
         <v>0.02746989</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>0.02122207</v>
+        <v>0.02118677</v>
       </c>
       <c r="D22" s="8" t="n">
-        <v>0.008423449999999999</v>
+        <v>0.00776831</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>0.04869196</v>
+        <v>0.04865666</v>
       </c>
       <c r="F22" s="8" t="n">
-        <v>0.008423449999999999</v>
+        <v>0.00776831</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>48.09540892729301</v>
+        <v>48.68392486517937</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>37.15646968129967</v>
+        <v>37.54857113791996</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>85.25187860859268</v>
+        <v>86.23249600309933</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
     </row>
     <row r="23">
@@ -1313,34 +1313,34 @@
         </is>
       </c>
       <c r="B24" s="5" t="n">
-        <v>18.51178065204852</v>
+        <v>18.50934330204852</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>33.6915239372176</v>
+        <v>33.69065111221759</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.59242457018554</v>
+        <v>17.59157887518554</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>52.20330458926612</v>
+        <v>52.19999441426612</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.59242457018554</v>
+        <v>17.59157887518554</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>26.5227985651636</v>
+        <v>26.52088558783935</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>48.27161252266269</v>
+        <v>48.27323632967825</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>25.2055889121737</v>
+        <v>25.2058780824824</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>74.79441108782629</v>
+        <v>74.7941219175176</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>25.2055889121737</v>
+        <v>25.2058780824824</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_area.xlsx
@@ -604,31 +604,31 @@
         <v>0.2149735505687284</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1.00232117553715</v>
+        <v>0.9823068853471902</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2327224185607216</v>
+        <v>0.2254840312804062</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.217294726105878</v>
+        <v>1.197280435915919</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2327224185607216</v>
+        <v>0.2254840312804062</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>14.82558681181366</v>
+        <v>15.10956701022704</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>69.12478098785597</v>
+        <v>69.04212945962217</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>16.04963220033037</v>
+        <v>15.84830353015079</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>83.95036779966964</v>
+        <v>84.15169646984921</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>16.04963220033037</v>
+        <v>15.84830353015079</v>
       </c>
     </row>
     <row r="5">
@@ -642,28 +642,28 @@
         <v>6.089142804467025</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9839440814836907</v>
+        <v>0.9839436444806937</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>6.350246727481826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9839440814836907</v>
+        <v>0.9839436444806937</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.56009176493773</v>
+        <v>3.560091977063498</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>83.02405763732639</v>
+        <v>83.02406258426124</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>13.41585059773589</v>
+        <v>13.41584543867526</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>86.58414940226412</v>
+        <v>86.58415456132474</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.41585059773589</v>
+        <v>13.41584543867526</v>
       </c>
     </row>
     <row r="6">
@@ -1167,32 +1167,32 @@
       <c r="B20" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="5" t="n">
-        <v>0.11214782</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>0.26934514</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.11214782</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.26934514</v>
+      <c r="C20" s="7" t="n">
+        <v>0.04298276364640884</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>0.03504234798678382</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>0.04298276364640884</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>0.03504234798678382</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>29.39708769461958</v>
+        <v>55.08837186735091</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>70.60291230538041</v>
+        <v>44.91162813264909</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>29.39708769461958</v>
+        <v>55.08837186735091</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>70.60291230538041</v>
+        <v>44.91162813264909</v>
       </c>
     </row>
     <row r="21">
@@ -1239,34 +1239,34 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.02746989</v>
+        <v>0.02678414</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>0.02118677</v>
+        <v>0.02084913</v>
       </c>
       <c r="D22" s="8" t="n">
-        <v>0.00776831</v>
+        <v>0.00601671</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>0.04865666</v>
+        <v>0.04763327000000001</v>
       </c>
       <c r="F22" s="8" t="n">
-        <v>0.00776831</v>
+        <v>0.00601671</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>48.68392486517937</v>
+        <v>49.92385831271513</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>37.54857113791996</v>
+        <v>38.86139379735091</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>86.23249600309933</v>
+        <v>88.78525211006604</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
     </row>
     <row r="23">
@@ -1313,34 +1313,34 @@
         </is>
       </c>
       <c r="B24" s="5" t="n">
-        <v>18.50934330204852</v>
+        <v>18.50865755204852</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>33.69065111221759</v>
+        <v>33.60113412567404</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.59157887518554</v>
+        <v>17.34828565888902</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>52.19999441426612</v>
+        <v>52.10979167772258</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.59157887518554</v>
+        <v>17.34828565888902</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>26.52088558783935</v>
+        <v>26.64723565892969</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>48.27323632967825</v>
+        <v>48.37613624522655</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>25.2058780824824</v>
+        <v>24.97662809584376</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>74.7941219175176</v>
+        <v>75.02337190415625</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>25.2058780824824</v>
+        <v>24.97662809584376</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_area.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,31 +604,31 @@
         <v>0.2149735505687284</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9823068853471902</v>
+        <v>1.042822416980868</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2254840312804062</v>
+        <v>0.2544816107386248</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.197280435915919</v>
+        <v>1.257795967549597</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2254840312804062</v>
+        <v>0.2544816107386248</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>15.10956701022704</v>
+        <v>14.21521773880041</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>69.04212945962217</v>
+        <v>68.95707718957658</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>15.84830353015079</v>
+        <v>16.82770507162302</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>84.15169646984921</v>
+        <v>83.17229492837699</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>15.84830353015079</v>
+        <v>16.82770507162302</v>
       </c>
     </row>
     <row r="5">
@@ -639,31 +639,31 @@
         <v>0.2611039230148012</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.089142804467025</v>
+        <v>6.089112688587222</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9839436444806937</v>
+        <v>0.9839440814836907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.350246727481826</v>
+        <v>6.350216611602023</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9839436444806937</v>
+        <v>0.9839440814836907</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.560091977063498</v>
+        <v>3.560106383556024</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>83.02406258426124</v>
+        <v>83.02398792990367</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>13.41584543867526</v>
+        <v>13.41590568654031</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>86.58415456132474</v>
+        <v>86.58409431345969</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.41584543867526</v>
+        <v>13.41590568654031</v>
       </c>
     </row>
     <row r="6">
@@ -811,34 +811,34 @@
         <v>47</v>
       </c>
       <c r="B10" s="7" t="n">
-        <v>0.08575953985074626</v>
+        <v>0.08564058117647058</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.5344385436970592</v>
+        <v>0.5347161398954789</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7321769764521945</v>
+        <v>0.7320363889280505</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6201980835478056</v>
+        <v>0.6203567210719496</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7321769764521945</v>
+        <v>0.7320363889280505</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>6.341402055340052</v>
+        <v>6.332521257555844</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>39.51851520369351</v>
+        <v>39.53851405642543</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>54.14008274096643</v>
+        <v>54.12896468601873</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>45.85991725903357</v>
+        <v>45.87103531398127</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>54.14008274096643</v>
+        <v>54.12896468601873</v>
       </c>
     </row>
     <row r="11">
@@ -916,34 +916,34 @@
         <v>61</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>4.529991822754045</v>
+        <v>4.508682239885829</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>5.920655771900423</v>
+        <v>5.935660916396547</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3.921994775344531</v>
+        <v>3.935453453716624</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10.45064759465447</v>
+        <v>10.44434315628238</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.921994775344531</v>
+        <v>3.935453453716624</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>31.5181558556679</v>
+        <v>31.35428380642543</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>41.19392676366186</v>
+        <v>41.27778074600292</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>27.28791738067023</v>
+        <v>27.36793544757166</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>72.71208261932976</v>
+        <v>72.63206455242835</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>27.28791738067023</v>
+        <v>27.36793544757166</v>
       </c>
     </row>
     <row r="14">
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>0.3808164166666667</v>
+        <v>0.3791666033333334</v>
       </c>
       <c r="C19" s="8" t="n">
-        <v>0.004203333333333334</v>
+        <v>0.005853146666666665</v>
       </c>
       <c r="D19" s="9" t="n">
         <v>0</v>
@@ -1143,10 +1143,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>98.90828111198626</v>
+        <v>98.47978014980617</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>1.091718888013754</v>
+        <v>1.520219850193832</v>
       </c>
       <c r="I19" s="9" t="n">
         <v>0</v>
@@ -1161,186 +1161,149 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Deep Sea</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>0.04298276364640884</v>
+          <t>Salmon</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>0.07400945213675213</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0.2658024863247863</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>0.03504234798678382</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>0.04298276364640884</v>
+        <v>0.03519706153846154</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3398119384615385</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>0.03504234798678382</v>
-      </c>
-      <c r="G20" s="9" t="n">
-        <v>0</v>
+        <v>0.03519706153846154</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>19.7353802540078</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>55.08837186735091</v>
+        <v>70.87896192485682</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>44.91162813264909</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>55.08837186735091</v>
+        <v>90.61434217886463</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>44.91162813264909</v>
+        <v>9.38565782113537</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Salmon</t>
+          <t>Sharks</t>
         </is>
       </c>
       <c r="B21" s="7" t="n">
-        <v>0.07400945213675213</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>0.2658024863247863</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>0.03519706153846154</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>0.3398119384615385</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>0.03519706153846154</v>
+        <v>0.02678414</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>0.02084913</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>0.00601671</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>0.04763327000000001</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>0.00601671</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>19.7353802540078</v>
+        <v>49.92385831271513</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>70.87896192485682</v>
+        <v>38.86139379735091</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>9.38565782113537</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>90.61434217886463</v>
+        <v>88.78525211006604</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>9.38565782113537</v>
+        <v>11.21474788993398</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Sharks</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="n">
-        <v>0.02678414</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>0.02084913</v>
-      </c>
-      <c r="D22" s="8" t="n">
-        <v>0.00601671</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>0.04763327000000001</v>
-      </c>
-      <c r="F22" s="8" t="n">
-        <v>0.00601671</v>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>4.12150032</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.8392428399999999</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>0.03585733999999999</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>4.96074316</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>0.03585733999999999</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>49.92385831271513</v>
+        <v>82.48608869170148</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>38.86139379735091</v>
+        <v>16.79627658845249</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>11.21474788993398</v>
+        <v>0.7176347198460232</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>88.78525211006604</v>
+        <v>99.28236528015397</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>11.21474788993398</v>
+        <v>0.7176347198460232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>4.12150032</v>
+        <v>18.4855791971727</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8392428399999999</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>0.03585733999999999</v>
+        <v>33.63556933180939</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>17.35555941821139</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.96074316</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <v>0.03585733999999999</v>
+        <v>52.12114852898209</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>17.35555941821139</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>82.48608869170148</v>
+        <v>26.6068726388459</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.79627658845249</v>
+        <v>48.41272755377884</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7176347198460232</v>
+        <v>24.98039980737526</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>99.28236528015397</v>
+        <v>75.01960019262474</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7176347198460232</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>18.50865755204852</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>33.60113412567404</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>17.34828565888902</v>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>52.10979167772258</v>
-      </c>
-      <c r="F24" s="5" t="n">
-        <v>17.34828565888902</v>
-      </c>
-      <c r="G24" s="5" t="n">
-        <v>26.64723565892969</v>
-      </c>
-      <c r="H24" s="5" t="n">
-        <v>48.37613624522655</v>
-      </c>
-      <c r="I24" s="5" t="n">
-        <v>24.97662809584376</v>
-      </c>
-      <c r="J24" s="5" t="n">
-        <v>75.02337190415625</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>24.97662809584376</v>
+        <v>24.98039980737526</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_area.xlsx
@@ -604,31 +604,31 @@
         <v>0.2149735505687284</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1.042822416980868</v>
+        <v>1.042712087053505</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2544816107386248</v>
+        <v>0.2546138677691986</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.257795967549597</v>
+        <v>1.257685637622233</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2544816107386248</v>
+        <v>0.2546138677691986</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>14.21521773880041</v>
+        <v>14.21501162979527</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>68.95707718957658</v>
+        <v>68.94878186074772</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>16.82770507162302</v>
+        <v>16.83620650945702</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>83.17229492837699</v>
+        <v>83.16379349054299</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>16.82770507162302</v>
+        <v>16.83620650945702</v>
       </c>
     </row>
     <row r="5">
@@ -741,34 +741,34 @@
         <v>37</v>
       </c>
       <c r="B8" s="7" t="n">
-        <v>0.04017943800542482</v>
+        <v>0.03987990848499625</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.392267009722239</v>
+        <v>0.3968875267129702</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3111746034541544</v>
+        <v>0.3031283614392018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4324464477276638</v>
+        <v>0.4367674351979664</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3111746034541544</v>
+        <v>0.3031283614392018</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.40321416957853</v>
+        <v>5.389935808021984</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>52.75092859445264</v>
+        <v>53.64100303270093</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>41.84585723596884</v>
+        <v>40.96906115927708</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>58.15414276403117</v>
+        <v>59.03093884072291</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>41.84585723596884</v>
+        <v>40.96906115927708</v>
       </c>
     </row>
     <row r="9">
@@ -1056,34 +1056,34 @@
         <v>81</v>
       </c>
       <c r="B17" s="7" t="n">
-        <v>0.01025071243098354</v>
+        <v>0.01024743946412194</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3050242584163881</v>
+        <v>0.3050137142524005</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>0.01251035915262835</v>
+        <v>0.01252417628347753</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3152749708473717</v>
+        <v>0.3152611537165225</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>0.01251035915262835</v>
+        <v>0.01252417628347753</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.127263941611889</v>
+        <v>3.12626543235536</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>93.05610425469258</v>
+        <v>93.05288746522015</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.81663180369553</v>
+        <v>3.820847102424483</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>96.18336819630447</v>
+        <v>96.17915289757551</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.81663180369553</v>
+        <v>3.820847102424483</v>
       </c>
     </row>
     <row r="18">
@@ -1276,34 +1276,34 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>18.4855791971727</v>
+        <v>18.48527639468541</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>33.63556933180939</v>
+        <v>33.64006897470878</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>17.35555941821139</v>
+        <v>17.34765925035786</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52.12114852898209</v>
+        <v>52.12534536939418</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.35555941821139</v>
+        <v>17.34765925035786</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>26.6068726388459</v>
+        <v>26.60785508826232</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>48.41272755377884</v>
+        <v>48.42178506433056</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>24.98039980737526</v>
+        <v>24.97035984740713</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>75.01960019262474</v>
+        <v>75.02964015259288</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>24.98039980737526</v>
+        <v>24.97035984740713</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_area.xlsx
@@ -706,34 +706,34 @@
         <v>34</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>1.232533125968933</v>
+        <v>1.239430784680212</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.9043348644032806</v>
+        <v>1.03507967575426</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.429354929629787</v>
+        <v>1.291712459567528</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2.136867990372214</v>
+        <v>2.274510460434472</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.429354929629787</v>
+        <v>1.291712459567528</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>34.56130347477666</v>
+        <v>34.75471983898068</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>25.35833807054252</v>
+        <v>29.02453657478259</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>40.08035845468081</v>
+        <v>36.22074358623672</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>59.91964154531919</v>
+        <v>63.77925641376328</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>40.08035845468081</v>
+        <v>36.22074358623672</v>
       </c>
     </row>
     <row r="8">
@@ -1276,34 +1276,34 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>18.48527639468541</v>
+        <v>18.49217405339669</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>33.64006897470878</v>
+        <v>33.77081378605975</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>17.34765925035786</v>
+        <v>17.2100167802956</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52.12534536939418</v>
+        <v>52.26298783945644</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.34765925035786</v>
+        <v>17.2100167802956</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>26.60785508826232</v>
+        <v>26.61778363352825</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>48.42178506433056</v>
+        <v>48.60998019431894</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>24.97035984740713</v>
+        <v>24.7722361721528</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>75.02964015259288</v>
+        <v>75.22776382784718</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>24.97035984740713</v>
+        <v>24.7722361721528</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_area.xlsx
@@ -712,28 +712,28 @@
         <v>1.03507967575426</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.291712459567528</v>
+        <v>1.291712409567528</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>2.274510460434472</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.291712459567528</v>
+        <v>1.291712409567528</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>34.75471983898068</v>
+        <v>34.75472032625702</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>29.02453657478259</v>
+        <v>29.02453698171925</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>36.22074358623672</v>
+        <v>36.22074269202373</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>63.77925641376328</v>
+        <v>63.77925730797627</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>36.22074358623672</v>
+        <v>36.22074269202373</v>
       </c>
     </row>
     <row r="8">
@@ -1021,7 +1021,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.5731952950638293</v>
+        <v>0.5733837900638292</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>0.5072399910954071</v>
@@ -1030,25 +1030,25 @@
         <v>0.2442260147028325</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.080435286159236</v>
+        <v>1.080623781159236</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.2442260147028325</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>43.27108330943184</v>
+        <v>43.27915450149072</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>38.29205176940727</v>
+        <v>38.28660371007192</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>18.43686492116091</v>
+        <v>18.43424178843736</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>81.56313507883911</v>
+        <v>81.56575821156264</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>18.43686492116091</v>
+        <v>18.43424178843736</v>
       </c>
     </row>
     <row r="17">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B21" s="7" t="n">
-        <v>0.02678414</v>
+        <v>0.021544435</v>
       </c>
       <c r="C21" s="7" t="n">
         <v>0.02084913</v>
@@ -1211,25 +1211,25 @@
         <v>0.00601671</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>0.04763327000000001</v>
+        <v>0.042393565</v>
       </c>
       <c r="F21" s="8" t="n">
         <v>0.00601671</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>49.92385831271513</v>
+        <v>44.50384758194412</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>38.86139379735091</v>
+        <v>43.06757191525973</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>88.78525211006604</v>
+        <v>87.57141949720386</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
     </row>
     <row r="22">
@@ -1276,34 +1276,34 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>18.49217405339669</v>
+        <v>18.48712284339669</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>33.77081378605975</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>17.2100167802956</v>
+        <v>17.21001673029561</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52.26298783945644</v>
+        <v>52.25793662945645</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.2100167802956</v>
+        <v>17.21001673029561</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>26.61778363352825</v>
+        <v>26.61244782562956</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>48.60998019431894</v>
+        <v>48.61351479749467</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>24.7722361721528</v>
+        <v>24.77403737687578</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>75.22776382784718</v>
+        <v>75.22596262312422</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>24.7722361721528</v>
+        <v>24.77403737687578</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_area.xlsx
@@ -115,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -126,9 +126,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -582,7 +579,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Area</t>
+          <t>Analysis Group</t>
         </is>
       </c>
       <c r="B3" s="5" t="n"/>
@@ -597,602 +594,632 @@
       <c r="K3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
-        <v>21</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Area 21</t>
+        </is>
       </c>
       <c r="B4" s="5" t="n">
         <v>0.2149735505687284</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1.042712087053505</v>
+        <v>1.014533765543599</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2546138677691986</v>
+        <v>0.2227949605542723</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.257685637622233</v>
+        <v>1.229507316112328</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2546138677691986</v>
+        <v>0.2227949605542723</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>14.21501162979527</v>
+        <v>14.80225942096207</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>68.94878186074772</v>
+        <v>69.85692867411942</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>16.83620650945702</v>
+        <v>15.34081190491851</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>83.16379349054299</v>
+        <v>84.65918809508149</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>16.83620650945702</v>
+        <v>15.34081190491851</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>27</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Area 27</t>
+        </is>
       </c>
       <c r="B5" s="5" t="n">
         <v>0.2611039230148012</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.089112688587222</v>
+        <v>6.083872525501508</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.9839440814836907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.350216611602023</v>
+        <v>6.344976448516309</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0.9839440814836907</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.560106383556024</v>
+        <v>3.562651852288556</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>83.02398792990367</v>
+        <v>83.01185011623407</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>13.41590568654031</v>
+        <v>13.42549803147737</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>86.58409431345969</v>
+        <v>86.57450196852263</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.41590568654031</v>
+        <v>13.42549803147737</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
-        <v>31</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Area 31</t>
+        </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.566975606506208</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>0.07637010092554491</v>
+        <v>0.527994375256208</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.0512063517232221</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2052627825682471</v>
+        <v>0.1649820030205699</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6433457074317529</v>
+        <v>0.57920072697943</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2052627825682471</v>
+        <v>0.1649820030205699</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>66.81238912731217</v>
+        <v>70.94956036620307</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.99945049165663</v>
+        <v>6.880884177898364</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>24.18816038103119</v>
+        <v>22.16955545589856</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>75.8118396189688</v>
+        <v>77.83044454410144</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>24.18816038103119</v>
+        <v>22.16955545589856</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
-        <v>34</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Area 34</t>
+        </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>1.239430784680212</v>
+        <v>1.201617535145328</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1.03507967575426</v>
+        <v>0.9648550694751906</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.291712409567528</v>
+        <v>1.167468875381482</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2.274510460434472</v>
+        <v>2.166472604620518</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.291712409567528</v>
+        <v>1.167468875381482</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>34.75472032625702</v>
+        <v>36.04195041673638</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>29.02453698171925</v>
+        <v>28.94037208699331</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>36.22074269202373</v>
+        <v>35.01767749627032</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>63.77925730797627</v>
+        <v>64.98232250372969</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>36.22074269202373</v>
+        <v>35.01767749627032</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>37</v>
-      </c>
-      <c r="B8" s="7" t="n">
-        <v>0.03987990848499625</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Area 37</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>0.04273117597030027</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3968875267129702</v>
+        <v>0.3954850723381995</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3031283614392018</v>
+        <v>0.3668189016915003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4367674351979664</v>
+        <v>0.4382162483084998</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3031283614392018</v>
+        <v>0.3668189016915003</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.389935808021984</v>
+        <v>5.307988846238611</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>53.64100303270093</v>
+        <v>49.1264353287182</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>40.96906115927708</v>
+        <v>45.5655758250432</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>59.03093884072291</v>
+        <v>54.43442417495681</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>40.96906115927708</v>
+        <v>45.5655758250432</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>41</v>
-      </c>
-      <c r="B9" s="7" t="n">
-        <v>0.03725662800492611</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Area 41</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>0.03219510714285714</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.101351767196223</v>
+        <v>1.087291987023809</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5110920147988505</v>
+        <v>0.4975946258333332</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.138608395201149</v>
+        <v>1.119487094166667</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5110920147988505</v>
+        <v>0.4975946258333332</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>2.258387509579761</v>
+        <v>1.990938784643311</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>66.76071367383751</v>
+        <v>67.23791219554505</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>30.98089881658274</v>
+        <v>30.77114901981165</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>69.01910118341728</v>
+        <v>69.22885098018835</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>30.98089881658274</v>
+        <v>30.77114901981165</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>47</v>
-      </c>
-      <c r="B10" s="7" t="n">
-        <v>0.08564058117647058</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Area 47</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>0.07767035</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.5347161398954789</v>
+        <v>0.498202320644142</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7320363889280505</v>
+        <v>0.7368861793558579</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6203567210719496</v>
+        <v>0.575872670644142</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7320363889280505</v>
+        <v>0.7368861793558579</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>6.332521257555844</v>
+        <v>5.916574091273504</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>39.53851405642543</v>
+        <v>37.95078743092397</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>54.12896468601873</v>
+        <v>56.13263847780252</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>45.87103531398127</v>
+        <v>43.86736152219747</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>54.12896468601873</v>
+        <v>56.13263847780252</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>51</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Area 48,58,88</t>
+        </is>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1.124014212475507</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>1.904859311285578</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>1.295687850238915</v>
+        <v>0.3802787764308209</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>0.004740973569179163</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.028873523761085</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>1.295687850238915</v>
+        <v>0.38501975</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>25.99140387354132</v>
+        <v>98.76864146081358</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>44.04745699154409</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>29.9611391349146</v>
+        <v>1.231358539186409</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>70.03886086508541</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>29.9611391349146</v>
+        <v>99.99999999999999</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n">
-        <v>57</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Area 51</t>
+        </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>0.8186223418063776</v>
+        <v>0.9774247007087546</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.699075689035789</v>
+        <v>1.638884140029289</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9620605899324924</v>
+        <v>1.701523358261956</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.517698030842167</v>
+        <v>2.616308840738044</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9620605899324924</v>
+        <v>1.701523358261956</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.93902192521486</v>
+        <v>22.63693111870174</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>67.50435457160448</v>
+        <v>37.95617950157607</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.55662350318067</v>
+        <v>39.4068893797222</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>82.44337649681934</v>
+        <v>60.59311062027781</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.55662350318067</v>
+        <v>39.4068893797222</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n">
-        <v>61</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Area 57</t>
+        </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>4.508682239885829</v>
+        <v>0.4510648847948834</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>5.935660916396547</v>
+        <v>2.841275751200541</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3.935453453716624</v>
+        <v>0.5700067097792357</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10.44434315628238</v>
+        <v>3.292340635995424</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.935453453716624</v>
+        <v>0.5700067097792357</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>31.35428380642543</v>
+        <v>11.6785168296254</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>41.27778074600292</v>
+        <v>73.56344463189845</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>27.36793544757166</v>
+        <v>14.75803853847617</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>72.63206455242835</v>
+        <v>85.24196146152384</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>27.36793544757166</v>
+        <v>14.75803853847617</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n">
-        <v>67</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Area 61</t>
+        </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>0.7066323586228743</v>
+        <v>3.613679759420712</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.754162455314656</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>0.02940517606246923</v>
+        <v>5.072622810233756</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>5.693494040344532</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.46079481393753</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v>0.02940517606246923</v>
+        <v>8.686302569654469</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>5.693494040344532</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>28.37653045781574</v>
+        <v>25.13025641063614</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>70.44263361813991</v>
+        <v>35.27604004292039</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.180835924044367</v>
+        <v>39.59370354644347</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>98.81916407595565</v>
+        <v>60.40629645355654</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1.180835924044367</v>
+        <v>39.59370354644347</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n">
-        <v>71</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Area 67 - Other Stocks</t>
+        </is>
       </c>
       <c r="B15" s="5" t="n">
-        <v>2.083937406227297</v>
+        <v>0.6843328717750483</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.415107188610831</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>4.588987080161871</v>
+        <v>1.732381561184221</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.0257750270407301</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.499044594838128</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>4.588987080161871</v>
+        <v>2.41671443295927</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.0257750270407301</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>22.93056935485755</v>
+        <v>28.01784339225146</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>26.57459035111507</v>
+        <v>70.92687970838661</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>50.49484029402739</v>
+        <v>1.055276899361936</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>49.50515970597262</v>
+        <v>98.94472310063807</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>50.49484029402739</v>
+        <v>1.055276899361936</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>0.5733837900638292</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Area 67 - Salmon</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>0.07400945213675213</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.5072399910954071</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>0.2442260147028325</v>
+        <v>0.2658024863247863</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.03519706153846154</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.080623781159236</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>0.2442260147028325</v>
+        <v>0.3398119384615385</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.03519706153846154</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>43.27915450149072</v>
+        <v>19.7353802540078</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>38.28660371007192</v>
+        <v>70.87896192485682</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>18.43424178843736</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>81.56575821156264</v>
+        <v>90.61434217886463</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>18.43424178843736</v>
+        <v>9.38565782113537</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="B17" s="7" t="n">
-        <v>0.01024743946412194</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Area 71</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>1.262848417202907</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3050137142524005</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>0.01252417628347753</v>
+        <v>1.367510892269368</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>2.974676500527725</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3152611537165225</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>0.01252417628347753</v>
+        <v>2.630359309472275</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>2.974676500527725</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.12626543235536</v>
+        <v>22.53060390711235</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>93.05288746522015</v>
+        <v>24.39789750905031</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.820847102424483</v>
+        <v>53.07149858383732</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>96.17915289757551</v>
+        <v>46.92850141616267</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.820847102424483</v>
+        <v>53.07149858383732</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n">
-        <v>87</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Area 77</t>
+        </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>1.620121261944423</v>
+        <v>0.5712552000638293</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.841716930951881</v>
+        <v>0.4912809810954071</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.782811371103695</v>
+        <v>0.2315688688407636</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.461838192896304</v>
+        <v>1.062536181159236</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.782811371103695</v>
+        <v>0.2315688688407636</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>17.52496133821459</v>
+        <v>44.14287696843694</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>63.19024740213378</v>
+        <v>37.96299080166693</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>19.28479125965163</v>
+        <v>17.89413222989614</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>80.71520874034837</v>
+        <v>82.10586777010386</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>19.28479125965163</v>
+        <v>17.89413222989614</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>48,58,88</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>0.3791666033333334</v>
-      </c>
-      <c r="C19" s="8" t="n">
-        <v>0.005853146666666665</v>
-      </c>
-      <c r="D19" s="9" t="n">
-        <v>0</v>
+          <t>Area 81</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n">
+        <v>0.007700717167825643</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0.3033988796945836</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.01225787313759075</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.38501975</v>
-      </c>
-      <c r="F19" s="9" t="n">
-        <v>0</v>
+        <v>0.3110995968624093</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.01225787313759075</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>98.47978014980617</v>
+        <v>2.381487326649866</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>1.520219850193832</v>
-      </c>
-      <c r="I19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>0</v>
+        <v>93.82770087067527</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>3.790811802674839</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>96.20918819732513</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>3.790811802674839</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Salmon</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="n">
-        <v>0.07400945213675213</v>
+          <t>Area 87</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>1.620121261944423</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2658024863247863</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>0.03519706153846154</v>
+        <v>5.814085638951882</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.829410259103695</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3398119384615385</v>
-      </c>
-      <c r="F20" s="7" t="n">
-        <v>0.03519706153846154</v>
+        <v>7.434206900896306</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.829410259103695</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>19.7353802540078</v>
+        <v>17.48907833691633</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>70.87896192485682</v>
+        <v>62.76258548396102</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>9.38565782113537</v>
+        <v>19.74833617912266</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>90.61434217886463</v>
+        <v>80.25166382087734</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>9.38565782113537</v>
+        <v>19.74833617912266</v>
       </c>
     </row>
     <row r="21">
@@ -1201,35 +1228,35 @@
           <t>Sharks</t>
         </is>
       </c>
-      <c r="B21" s="7" t="n">
-        <v>0.021544435</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>0.02084913</v>
-      </c>
-      <c r="D21" s="8" t="n">
-        <v>0.00601671</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>0.042393565</v>
-      </c>
-      <c r="F21" s="8" t="n">
-        <v>0.00601671</v>
+      <c r="B21" s="6" t="n">
+        <v>0.053304665</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.04703494</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.023091265</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.100339605</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.023091265</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>44.50384758194412</v>
+        <v>43.18584564785131</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>43.06757191525973</v>
+        <v>38.10630193240962</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>12.42858050279615</v>
+        <v>18.70785241973908</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>87.57141949720386</v>
+        <v>81.29214758026093</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>12.42858050279615</v>
+        <v>18.70785241973908</v>
       </c>
     </row>
     <row r="22">
@@ -1244,13 +1271,13 @@
       <c r="C22" s="5" t="n">
         <v>0.8392428399999999</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="6" t="n">
         <v>0.03585733999999999</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>4.96074316</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="6" t="n">
         <v>0.03585733999999999</v>
       </c>
       <c r="G22" s="5" t="n">
@@ -1276,34 +1303,34 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>18.48712284339669</v>
+        <v>16.17580704374418</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>33.77081378605975</v>
+        <v>30.51370898680269</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>17.21001673029561</v>
+        <v>17.27334793089539</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52.25793662945645</v>
+        <v>46.68951603054687</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.21001673029561</v>
+        <v>17.27334793089539</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>26.61244782562956</v>
+        <v>25.28937267958355</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>48.61351479749467</v>
+        <v>47.70535135074126</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>24.77403737687578</v>
+        <v>27.00527596967519</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>75.22596262312422</v>
+        <v>72.99472403032482</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>24.77403737687578</v>
+        <v>27.00527596967519</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_area.xlsx
@@ -600,34 +600,34 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>0.2149735505687284</v>
+        <v>0.2148697022354285</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1.014533765543599</v>
+        <v>1.014797185030779</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2227949605542723</v>
+        <v>0.2232178711953313</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.229507316112328</v>
+        <v>1.229666887266207</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2227949605542723</v>
+        <v>0.2232178711953313</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>14.80225942096207</v>
+        <v>14.78917725470217</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>69.85692867411942</v>
+        <v>69.8470528457707</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>84.65918809508149</v>
+        <v>84.63623010047289</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
     </row>
     <row r="5">
@@ -640,31 +640,31 @@
         <v>0.2611039230148012</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.083872525501508</v>
+        <v>6.083963857694491</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.9839440814836907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.344976448516309</v>
+        <v>6.345067780709292</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0.9839440814836907</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.562651852288556</v>
+        <v>3.562607455470455</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>83.01185011623407</v>
+        <v>83.01206181803137</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>86.57450196852263</v>
+        <v>86.57466927350183</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
     </row>
     <row r="6">
@@ -674,34 +674,34 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.527994375256208</v>
+        <v>0.5308984313463552</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0.0512063517232221</v>
+        <v>0.08355793807577286</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1649820030205699</v>
+        <v>0.1730605882118006</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.57920072697943</v>
+        <v>0.614456369422128</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1649820030205699</v>
+        <v>0.1730605882118006</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>70.94956036620307</v>
+        <v>67.41422215737725</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.880884177898364</v>
+        <v>10.61030334214265</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>22.16955545589856</v>
+        <v>21.97547450048009</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>77.83044454410144</v>
+        <v>78.02452549951991</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>22.16955545589856</v>
+        <v>21.97547450048009</v>
       </c>
     </row>
     <row r="7">
@@ -711,34 +711,34 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>1.201617535145328</v>
+        <v>1.20164688127621</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.9648550694751906</v>
+        <v>1.009348869866107</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.167468875381482</v>
+        <v>1.159907192933769</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2.166472604620518</v>
+        <v>2.210995751142317</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.167468875381482</v>
+        <v>1.159907192933769</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>36.04195041673638</v>
+        <v>35.64762620614589</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>28.94037208699331</v>
+        <v>29.94298223981509</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>35.01767749627032</v>
+        <v>34.40939155403901</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>64.98232250372969</v>
+        <v>65.59060844596098</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>35.01767749627032</v>
+        <v>34.40939155403901</v>
       </c>
     </row>
     <row r="8">
@@ -748,34 +748,34 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>0.04273117597030027</v>
+        <v>0.0421518742216016</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3954850723381995</v>
+        <v>0.4213912329982636</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3668189016915003</v>
+        <v>0.3509161094855612</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4382162483084998</v>
+        <v>0.4635431072198652</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3668189016915003</v>
+        <v>0.3509161094855612</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.307988846238611</v>
+        <v>5.175443209067041</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>49.1264353287182</v>
+        <v>51.73877639973622</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>54.43442417495681</v>
+        <v>56.91421960880326</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
     </row>
     <row r="9">
@@ -785,34 +785,34 @@
         </is>
       </c>
       <c r="B9" s="6" t="n">
-        <v>0.03219510714285714</v>
+        <v>0.03874237895535715</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.087291987023809</v>
+        <v>1.108156536555059</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4975946258333332</v>
+        <v>0.5300938789895833</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.119487094166667</v>
+        <v>1.146898915510417</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4975946258333332</v>
+        <v>0.5300938789895833</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.990938784643311</v>
+        <v>2.31022930345436</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>67.23791219554505</v>
+        <v>66.07998198856063</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>30.77114901981165</v>
+        <v>31.60978870798501</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>69.22885098018835</v>
+        <v>68.390211292015</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>30.77114901981165</v>
+        <v>31.60978870798501</v>
       </c>
     </row>
     <row r="10">
@@ -822,34 +822,34 @@
         </is>
       </c>
       <c r="B10" s="6" t="n">
-        <v>0.07767035</v>
+        <v>0.07798750943301688</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.498202320644142</v>
+        <v>0.4983266613974121</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7368861793558579</v>
+        <v>0.7387939608088114</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.575872670644142</v>
+        <v>0.576314170830429</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7368861793558579</v>
+        <v>0.7387939608088114</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>5.916574091273504</v>
+        <v>5.930121452127889</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>37.95078743092397</v>
+        <v>37.89244773175144</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>56.13263847780252</v>
+        <v>56.17743081612067</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>43.86736152219747</v>
+        <v>43.82256918387932</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>56.13263847780252</v>
+        <v>56.17743081612067</v>
       </c>
     </row>
     <row r="11">
@@ -896,34 +896,34 @@
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>0.9774247007087546</v>
+        <v>0.8920342950285537</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.638884140029289</v>
+        <v>1.560156043166096</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.701523358261956</v>
+        <v>1.018765512657581</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.616308840738044</v>
+        <v>2.452190338194649</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.701523358261956</v>
+        <v>1.018765512657581</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>22.63693111870174</v>
+        <v>25.6999608568784</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>37.95617950157607</v>
+        <v>44.94888757467277</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>39.4068893797222</v>
+        <v>29.35115156844882</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>60.59311062027781</v>
+        <v>70.64884843155117</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>39.4068893797222</v>
+        <v>29.35115156844882</v>
       </c>
     </row>
     <row r="13">
@@ -933,34 +933,34 @@
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>0.4510648847948834</v>
+        <v>0.3376702808201255</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>2.841275751200541</v>
+        <v>2.680323361324219</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5700067097792357</v>
+        <v>0.6213451993842961</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3.292340635995424</v>
+        <v>3.017993642144344</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5700067097792357</v>
+        <v>0.6213451993842961</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>11.6785168296254</v>
+        <v>9.278341356044031</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>73.56344463189845</v>
+        <v>73.64863449203855</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>14.75803853847617</v>
+        <v>17.07302415191741</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>85.24196146152384</v>
+        <v>82.92697584808258</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>14.75803853847617</v>
+        <v>17.07302415191741</v>
       </c>
     </row>
     <row r="14">
@@ -970,77 +970,77 @@
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>3.613679759420712</v>
+        <v>3.668245990173823</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.072622810233756</v>
+        <v>5.204463749886533</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.693494040344532</v>
+        <v>3.170768991939643</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.686302569654469</v>
+        <v>8.872709740060355</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.693494040344532</v>
+        <v>3.170768991939643</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>25.13025641063614</v>
+        <v>30.45835901571485</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>35.27604004292039</v>
+        <v>43.21395724358334</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>39.59370354644347</v>
+        <v>26.3276837407018</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>60.40629645355654</v>
+        <v>73.6723162592982</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>39.59370354644347</v>
+        <v>26.3276837407018</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Area 67 - Other Stocks</t>
+          <t>Area 67</t>
         </is>
       </c>
       <c r="B15" s="5" t="n">
-        <v>0.6843328717750483</v>
+        <v>0.6808355217777051</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.732381561184221</v>
+        <v>1.733126236739777</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.0257750270407301</v>
+        <v>0.02436845882226137</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.41671443295927</v>
+        <v>2.413961758517482</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.0257750270407301</v>
+        <v>0.02436845882226137</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>28.01784339225146</v>
+        <v>27.92220335605353</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>70.92687970838661</v>
+        <v>71.07840539460011</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.055276899361936</v>
+        <v>0.9993912493463557</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>98.94472310063807</v>
+        <v>99.00060875065364</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1.055276899361936</v>
+        <v>0.9993912493463557</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Area 67 - Salmon</t>
+          <t>Area 67 - Pacific Salmon</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
@@ -1081,34 +1081,34 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.262848417202907</v>
+        <v>1.00652246017215</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.367510892269368</v>
+        <v>1.035748686854183</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.974676500527725</v>
+        <v>2.500811126255161</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.630359309472275</v>
+        <v>2.042271147026333</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.974676500527725</v>
+        <v>2.500811126255161</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>22.53060390711235</v>
+        <v>22.15505684525351</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>24.39789750905031</v>
+        <v>22.79836957709453</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>53.07149858383732</v>
+        <v>55.04657357765197</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>46.92850141616267</v>
+        <v>44.95342642234804</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>53.07149858383732</v>
+        <v>55.04657357765197</v>
       </c>
     </row>
     <row r="18">
@@ -1118,34 +1118,34 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.5712552000638293</v>
+        <v>0.5658201593125666</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4912809810954071</v>
+        <v>0.4928605688984374</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2315688688407636</v>
+        <v>0.2456524769278848</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.062536181159236</v>
+        <v>1.058680728211004</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2315688688407636</v>
+        <v>0.2456524769278848</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>44.14287696843694</v>
+        <v>43.3800318111442</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>37.96299080166693</v>
+        <v>37.78640051151319</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>17.89413222989614</v>
+        <v>18.83356767734262</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>82.10586777010386</v>
+        <v>81.16643232265739</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.89413222989614</v>
+        <v>18.83356767734262</v>
       </c>
     </row>
     <row r="19">
@@ -1155,34 +1155,34 @@
         </is>
       </c>
       <c r="B19" s="7" t="n">
-        <v>0.007700717167825643</v>
+        <v>0.008118004549147738</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.3033988796945836</v>
+        <v>0.2777496285366552</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.01225787313759075</v>
+        <v>0.01285128261025577</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.3110995968624093</v>
+        <v>0.2858676330858029</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.01225787313759075</v>
+        <v>0.01285128261025577</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>2.381487326649866</v>
+        <v>2.717606459648396</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>93.82770087067527</v>
+        <v>92.9802613568873</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>3.790811802674839</v>
+        <v>4.302132183464314</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>96.20918819732513</v>
+        <v>95.69786781653569</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>3.790811802674839</v>
+        <v>4.302132183464314</v>
       </c>
     </row>
     <row r="20">
@@ -1195,31 +1195,31 @@
         <v>1.620121261944423</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>5.814085638951882</v>
+        <v>5.814166518951882</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.829410259103695</v>
+        <v>1.735594145060485</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.434206900896306</v>
+        <v>7.434287780896305</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.829410259103695</v>
+        <v>1.735594145060485</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>17.48907833691633</v>
+        <v>17.66785303263738</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>62.76258548396102</v>
+        <v>63.40503144859446</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>19.74833617912266</v>
+        <v>18.92711551876817</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>80.25166382087734</v>
+        <v>81.07288448123184</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>19.74833617912266</v>
+        <v>18.92711551876817</v>
       </c>
     </row>
     <row r="21">
@@ -1229,34 +1229,34 @@
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>0.053304665</v>
+        <v>0.04823728</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.04703494</v>
+        <v>0.05156571000000001</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.023091265</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>0.100339605</v>
+        <v>0.02192673</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.09980299000000001</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.023091265</v>
+        <v>0.02192673</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>43.18584564785131</v>
+        <v>39.62654313178409</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>38.10630193240962</v>
+        <v>42.36082199153995</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>18.70785241973908</v>
+        <v>18.01263487667597</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>81.29214758026093</v>
+        <v>81.98736512332404</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>18.70785241973908</v>
+        <v>18.01263487667597</v>
       </c>
     </row>
     <row r="22">
@@ -1303,34 +1303,34 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>16.17580704374418</v>
+        <v>15.77079450282884</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>30.51370898680269</v>
+        <v>30.17948908586963</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>17.27334793089539</v>
+        <v>13.58307200830458</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>46.68951603054687</v>
+        <v>45.95028358869847</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.27334793089539</v>
+        <v>13.58307200830458</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>25.28937267958355</v>
+        <v>26.49068634663481</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>47.70535135074126</v>
+        <v>50.69341175754067</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>27.00527596967519</v>
+        <v>22.81590189582453</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>72.99472403032482</v>
+        <v>77.18409810417548</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>27.00527596967519</v>
+        <v>22.81590189582453</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_area.xlsx
+++ b/output/aggregate_tables/status_by_landings_area.xlsx
@@ -674,34 +674,34 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.5308984313463552</v>
+        <v>0.5308781136478118</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0.08355793807577286</v>
+        <v>0.08353762037722963</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1730605882118006</v>
+        <v>0.1739743782118006</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.614456369422128</v>
+        <v>0.6144157340250415</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1730605882118006</v>
+        <v>0.1739743782118006</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>67.41422215737725</v>
+        <v>67.33698272059627</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.61030334214265</v>
+        <v>10.59597514994378</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>21.97547450048009</v>
+        <v>22.06704212945996</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>78.02452549951991</v>
+        <v>77.93295787054004</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>21.97547450048009</v>
+        <v>22.06704212945996</v>
       </c>
     </row>
     <row r="7">
@@ -785,34 +785,34 @@
         </is>
       </c>
       <c r="B9" s="6" t="n">
-        <v>0.03874237895535715</v>
+        <v>0.03873910449941452</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.108156536555059</v>
+        <v>1.108698690415203</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5300938789895833</v>
+        <v>0.5300791439378415</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.146898915510417</v>
+        <v>1.147437794914618</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5300938789895833</v>
+        <v>0.5300791439378415</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>2.31022930345436</v>
+        <v>2.309312269950301</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>66.07998198856063</v>
+        <v>66.09165396408049</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>31.60978870798501</v>
+        <v>31.59903376596921</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>68.390211292015</v>
+        <v>68.40096623403079</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>31.60978870798501</v>
+        <v>31.59903376596921</v>
       </c>
     </row>
     <row r="10">
@@ -1303,34 +1303,34 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>15.77079450282884</v>
+        <v>15.77077091067435</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>30.17948908586963</v>
+        <v>30.18001092203124</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>13.58307200830458</v>
+        <v>13.58397106325283</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>45.95028358869847</v>
+        <v>45.95078183270559</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13.58307200830458</v>
+        <v>13.58397106325283</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>26.49068634663481</v>
+        <v>26.49002497454721</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>50.69341175754067</v>
+        <v>50.69309849118402</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>22.81590189582453</v>
+        <v>22.81687653426877</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>77.18409810417548</v>
+        <v>77.18312346573123</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>22.81590189582453</v>
+        <v>22.81687653426877</v>
       </c>
     </row>
   </sheetData>
